--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC1EA6-84DD-4C5E-A2BC-C41197CE198D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38290407-8751-45E6-BF3A-0C59BF2E46A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1015,6 +1017,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,23 +1047,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3074,16 +3076,16 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="14"/>
+    <col min="11" max="38" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>66</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
       <c r="B3" s="41"/>
       <c r="C3" s="43"/>
@@ -3298,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
@@ -3342,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="41"/>
       <c r="C5" s="43"/>
@@ -3386,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
       <c r="B6" s="48"/>
       <c r="C6" s="49"/>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f>SUM(B2:B6)</f>
         <v>24</v>
@@ -3580,7 +3582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>23</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>66</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="42"/>
       <c r="C10" s="59"/>
@@ -3795,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61"/>
       <c r="B11" s="37"/>
       <c r="C11" s="62"/>
@@ -3839,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="42"/>
       <c r="C12" s="59"/>
@@ -3883,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="63"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -3927,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <f>SUM(B9:B13)</f>
         <v>24</v>
@@ -4092,21 +4094,21 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="14"/>
-    <col min="8" max="8" width="12.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="14"/>
+    <col min="7" max="7" width="8.85546875" style="14"/>
+    <col min="8" max="8" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -4121,20 +4123,20 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -4188,7 +4190,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4245,7 +4247,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4272,7 +4274,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4297,7 +4299,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4314,7 +4316,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -4325,30 +4327,30 @@
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="70">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="70">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -4375,7 +4377,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -4404,7 +4406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -4429,7 +4431,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -4456,7 +4458,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -4479,7 +4481,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -4502,7 +4504,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
@@ -4513,28 +4515,28 @@
       <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="70">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="70">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4570,20 +4572,20 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -4596,20 +4598,20 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -4638,7 +4640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -4648,11 +4650,13 @@
       <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
       <c r="G4" s="12">
         <v>4</v>
       </c>
@@ -4661,7 +4665,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4671,22 +4675,24 @@
       <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="66" t="s">
         <v>85</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
       <c r="G5" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4696,22 +4702,24 @@
       <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="66" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
       <c r="G6" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4721,13 +4729,15 @@
       <c r="C7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="66" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="12">
         <v>5</v>
       </c>
@@ -4736,7 +4746,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4746,11 +4756,13 @@
       <c r="C8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
@@ -4759,7 +4771,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4769,13 +4781,15 @@
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="67" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
       <c r="G9" s="1">
         <v>5</v>
       </c>
@@ -4784,41 +4798,41 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="74"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="20"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="76">
         <f>SUM(F4:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="76">
         <f>SUM(G4:G10)</f>
-        <v>28</v>
-      </c>
-      <c r="I11" s="76"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I11" s="77"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -4828,22 +4842,24 @@
       <c r="C12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="66" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12">
+        <v>5</v>
+      </c>
       <c r="G12" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -4853,13 +4869,15 @@
       <c r="C13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="66" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12">
+        <v>5</v>
+      </c>
       <c r="G13" s="12">
         <v>5</v>
       </c>
@@ -4868,7 +4886,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -4878,20 +4896,22 @@
       <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
       <c r="G14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -4901,13 +4921,15 @@
       <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="67" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -4916,7 +4938,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -4926,13 +4948,15 @@
       <c r="C16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="67" t="s">
         <v>89</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
       <c r="G16" s="1">
         <v>5</v>
       </c>
@@ -4941,7 +4965,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -4951,54 +4975,56 @@
       <c r="C17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="69" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="74"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="76">
         <f>SUM(F12:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
+        <v>29</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="76">
         <f>SUM(G12:G18)</f>
-        <v>29</v>
-      </c>
-      <c r="I19" s="76"/>
+        <v>30</v>
+      </c>
+      <c r="I19" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38290407-8751-45E6-BF3A-0C59BF2E46A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DB623-4A07-444A-8EE6-4333DF1263E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70DB623-4A07-444A-8EE6-4333DF1263E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D0C49-2DF2-425B-8100-DE15747E54A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="95">
   <si>
     <t>Work in period</t>
   </si>
@@ -315,6 +315,16 @@
   </si>
   <si>
     <t>26/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ; 
+Requiment plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research React </t>
   </si>
 </sst>
 </file>
@@ -4569,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5026,8 +5036,202 @@
       </c>
       <c r="I19" s="77"/>
     </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>3</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="12">
+        <v>5</v>
+      </c>
+      <c r="G20" s="12">
+        <v>6</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>3</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="12">
+        <v>5</v>
+      </c>
+      <c r="G21" s="12">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>3</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>3</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>3</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>3</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="76">
+        <f>SUM(F20:F26)</f>
+        <v>29</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="76">
+        <f>SUM(G20:G26)</f>
+        <v>31</v>
+      </c>
+      <c r="I27" s="77"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
@@ -5039,13 +5243,13 @@
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{72DA7AFC-686F-4552-A46C-54827227E2DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26" xr:uid="{72DA7AFC-686F-4552-A46C-54827227E2DF}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{CA2FE6F4-962B-45C9-BD0E-B095FA55B23A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25" xr:uid="{CA2FE6F4-962B-45C9-BD0E-B095FA55B23A}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{ED2FDDC9-5592-49AD-9E51-6F9CA9FF49FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26" xr:uid="{ED2FDDC9-5592-49AD-9E51-6F9CA9FF49FF}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953D0C49-2DF2-425B-8100-DE15747E54A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5E127-255F-48DC-9A37-257999611249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4581,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5053,7 +5053,7 @@
         <v>71</v>
       </c>
       <c r="F20" s="12">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G20" s="12">
         <v>6</v>
@@ -5078,7 +5078,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="12">
         <v>4</v>
@@ -5157,10 +5157,10 @@
         <v>77</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>20</v>
@@ -5184,7 +5184,7 @@
         <v>91</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1">
         <v>6</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="C27" s="76">
         <f>SUM(F20:F26)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="76"/>
       <c r="E27" s="76"/>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="H27" s="76">
         <f>SUM(G20:G26)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I27" s="77"/>
     </row>

--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5E127-255F-48DC-9A37-257999611249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205BEE36-E8FB-4AC3-8A80-988EA01D2D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
   <si>
     <t>Work in period</t>
   </si>
@@ -325,14 +325,28 @@
   </si>
   <si>
     <t xml:space="preserve">Research React </t>
+  </si>
+  <si>
+    <t>28/10/2019</t>
+  </si>
+  <si>
+    <t>29/10/2019</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research GIS , 
+prepare question for customer </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -868,7 +882,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,6 +1076,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4581,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,7 +4611,7 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5036,7 +5056,7 @@
       </c>
       <c r="I19" s="77"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>3</v>
       </c>
@@ -5046,11 +5066,11 @@
       <c r="C20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>94</v>
+      <c r="D20" s="79" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F20" s="12">
         <v>5.5</v>
@@ -5063,7 +5083,7 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>3</v>
       </c>
@@ -5074,21 +5094,21 @@
         <v>63</v>
       </c>
       <c r="D21" s="66"/>
-      <c r="E21" s="23" t="s">
-        <v>72</v>
+      <c r="E21" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="F21" s="12">
         <v>4</v>
       </c>
       <c r="G21" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -5099,11 +5119,11 @@
         <v>61</v>
       </c>
       <c r="D22" s="67"/>
-      <c r="E22" s="21" t="s">
-        <v>73</v>
+      <c r="E22" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
@@ -5113,7 +5133,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -5126,21 +5146,21 @@
       <c r="D23" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>74</v>
+      <c r="E23" s="78">
+        <v>43476</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -5153,8 +5173,8 @@
       <c r="D24" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>77</v>
+      <c r="E24" s="78">
+        <v>43507</v>
       </c>
       <c r="F24" s="1">
         <v>4.5</v>
@@ -5180,14 +5200,14 @@
       <c r="D25" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>91</v>
+      <c r="E25" s="78">
+        <v>43535</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>20</v>
@@ -5214,7 +5234,7 @@
       </c>
       <c r="C27" s="76">
         <f>SUM(F20:F26)</f>
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="D27" s="76"/>
       <c r="E27" s="76"/>
@@ -5224,7 +5244,7 @@
       </c>
       <c r="H27" s="76">
         <f>SUM(G20:G26)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I27" s="77"/>
     </row>
@@ -5238,6 +5258,7 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="H19:I19"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{E33165A0-C84D-4A86-B33D-34CB51D1AC5F}">
       <formula1>B4</formula1>
@@ -5254,5 +5275,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205BEE36-E8FB-4AC3-8A80-988EA01D2D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9B36A-242C-40EE-914F-7FF580887A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="111">
   <si>
     <t>Work in period</t>
   </si>
@@ -336,8 +336,48 @@
     <t>30/10/2019</t>
   </si>
   <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>Test Process</t>
+  </si>
+  <si>
+    <t>Requiment process</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research GIS , 
-prepare question for customer </t>
+prepare question for customer 
+Test plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requiment plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ; 
+Review document ,  test process </t>
+  </si>
+  <si>
+    <t>TE_Testprocess_ver1.0</t>
+  </si>
+  <si>
+    <t>RE_RequimentPlan_ver1.0</t>
+  </si>
+  <si>
+    <t>RE_RequimentProcess_ver1.0</t>
+  </si>
+  <si>
+    <t>TE_Testplan_ver1.0</t>
+  </si>
+  <si>
+    <t>Meeting_Customer_29/10/2019
+Meeting_Mentor _30/10/2019</t>
+  </si>
+  <si>
+    <t>Meeting_Mentor_14/10/2019
+Meeting-customer_18/10/2019</t>
+  </si>
+  <si>
+    <t>Meeting_Mentor_23/10/2019</t>
   </si>
 </sst>
 </file>
@@ -346,7 +386,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -882,7 +922,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,6 +1093,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,11 +1123,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4154,17 +4197,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4364,21 +4407,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="72">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="72">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
@@ -4552,21 +4595,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="72">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="72">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="71"/>
+      <c r="I19" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4599,10 +4642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4612,7 +4655,8 @@
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4629,17 +4673,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4801,7 +4845,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4826,7 +4870,9 @@
       <c r="H9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="80" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
@@ -4846,21 +4892,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="78">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="78">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -5020,7 +5066,9 @@
       <c r="H17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
@@ -5040,23 +5088,23 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="78">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="78">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="77"/>
-    </row>
-    <row r="20" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="79"/>
+    </row>
+    <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>3</v>
       </c>
@@ -5066,8 +5114,8 @@
       <c r="C20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="79" t="s">
-        <v>98</v>
+      <c r="D20" s="71" t="s">
+        <v>101</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>95</v>
@@ -5079,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="19"/>
     </row>
@@ -5146,8 +5194,8 @@
       <c r="D23" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="78">
-        <v>43476</v>
+      <c r="E23" s="70" t="s">
+        <v>98</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -5158,7 +5206,9 @@
       <c r="H23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -5173,8 +5223,8 @@
       <c r="D24" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="78">
-        <v>43507</v>
+      <c r="E24" s="70">
+        <v>43476</v>
       </c>
       <c r="F24" s="1">
         <v>4.5</v>
@@ -5187,7 +5237,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>3</v>
       </c>
@@ -5200,8 +5250,8 @@
       <c r="D25" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="78">
-        <v>43535</v>
+      <c r="E25" s="70">
+        <v>43507</v>
       </c>
       <c r="F25" s="1">
         <v>6</v>
@@ -5210,9 +5260,11 @@
         <v>7</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
@@ -5232,24 +5284,224 @@
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="78">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="76">
+      <c r="H27" s="78">
         <f>SUM(G20:G26)</f>
         <v>35</v>
       </c>
-      <c r="I27" s="77"/>
+      <c r="I27" s="79"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>4</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="22">
+        <v>43773</v>
+      </c>
+      <c r="F28" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="G28" s="12">
+        <v>7</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="22">
+        <v>43774</v>
+      </c>
+      <c r="F29" s="12">
+        <v>5</v>
+      </c>
+      <c r="G29" s="12">
+        <v>6</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>4</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="22">
+        <v>43775</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>4</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="22">
+        <v>43776</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>4</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="22">
+        <v>43777</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>4</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="22">
+        <v>43778</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="78">
+        <f>SUM(F28:F34)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="78">
+        <f>SUM(G28:G34)</f>
+        <v>35</v>
+      </c>
+      <c r="I35" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="A2:I2"/>
@@ -5264,13 +5516,13 @@
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26" xr:uid="{72DA7AFC-686F-4552-A46C-54827227E2DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26 H28:H34" xr:uid="{72DA7AFC-686F-4552-A46C-54827227E2DF}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25" xr:uid="{CA2FE6F4-962B-45C9-BD0E-B095FA55B23A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25 C28:C33" xr:uid="{CA2FE6F4-962B-45C9-BD0E-B095FA55B23A}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26" xr:uid="{ED2FDDC9-5592-49AD-9E51-6F9CA9FF49FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34" xr:uid="{ED2FDDC9-5592-49AD-9E51-6F9CA9FF49FF}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D9B36A-242C-40EE-914F-7FF580887A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC77334-21A1-4E79-AA93-E376CF75E792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="113">
   <si>
     <t>Work in period</t>
   </si>
@@ -378,6 +378,14 @@
   </si>
   <si>
     <t>Meeting_Mentor_23/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ;
+Review document </t>
+  </si>
+  <si>
+    <t>Meeting_customer 8/10/2019
+Meeting_mentor 6/10/2019</t>
   </si>
 </sst>
 </file>
@@ -4642,10 +4650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,7 +5466,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>104</v>
@@ -5498,10 +5506,200 @@
       </c>
       <c r="I35" s="79"/>
     </row>
+    <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>4</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="22">
+        <v>43773</v>
+      </c>
+      <c r="F36" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="G36" s="12">
+        <v>5</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>4</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="66"/>
+      <c r="E37" s="22">
+        <v>43774</v>
+      </c>
+      <c r="F37" s="12">
+        <v>5</v>
+      </c>
+      <c r="G37" s="12">
+        <v>6</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>4</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="22">
+        <v>43775</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>4</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="22">
+        <v>43776</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>7</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>4</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="22">
+        <v>43777</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>5</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>4</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="22">
+        <v>43778</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="78">
+        <f>SUM(F36:F42)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="78">
+        <f>SUM(G36:G42)</f>
+        <v>33</v>
+      </c>
+      <c r="I43" s="79"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="A2:I2"/>
@@ -5516,13 +5714,13 @@
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26 H28:H34" xr:uid="{72DA7AFC-686F-4552-A46C-54827227E2DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26 H28:H34 H36:H42" xr:uid="{72DA7AFC-686F-4552-A46C-54827227E2DF}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25 C28:C33" xr:uid="{CA2FE6F4-962B-45C9-BD0E-B095FA55B23A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25 C28:C33 C36:C41" xr:uid="{CA2FE6F4-962B-45C9-BD0E-B095FA55B23A}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34" xr:uid="{ED2FDDC9-5592-49AD-9E51-6F9CA9FF49FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42" xr:uid="{ED2FDDC9-5592-49AD-9E51-6F9CA9FF49FF}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC77334-21A1-4E79-AA93-E376CF75E792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AACDF-0D86-4EB2-A77E-A3E8F0A075F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
   <si>
     <t>Work in period</t>
   </si>
@@ -380,12 +380,28 @@
     <t>Meeting_Mentor_23/10/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Complete the meeting minutes ;
-Review document </t>
-  </si>
-  <si>
     <t>Meeting_customer 8/10/2019
 Meeting_mentor 6/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConOP document </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usecase Decription </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare EOMP #1 
+Update document </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present EOMP1 
+Complete the meeting minutes 
+Report document for customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ;
+Review document 
+Analyst Requirement </t>
   </si>
 </sst>
 </file>
@@ -1107,6 +1123,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,9 +1149,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4205,17 +4221,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4415,21 +4431,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="73">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="73">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="73"/>
+      <c r="I11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
@@ -4603,21 +4619,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="73">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="73">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="73"/>
+      <c r="I19" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4652,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4681,17 +4697,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4878,7 +4894,7 @@
       <c r="H9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="72" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4900,21 +4916,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="79">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="79">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="80"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -5096,21 +5112,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="79">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="79">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="79"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
@@ -5270,7 +5286,7 @@
       <c r="H25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="I25" s="72" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5292,21 +5308,21 @@
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="79">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="79">
         <f>SUM(G20:G26)</f>
         <v>35</v>
       </c>
-      <c r="I27" s="79"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -5337,7 +5353,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>4</v>
       </c>
@@ -5490,25 +5506,25 @@
       <c r="B35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="78">
+      <c r="C35" s="79">
         <f>SUM(F28:F34)</f>
         <v>31.5</v>
       </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="80"/>
       <c r="G35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="78">
+      <c r="H35" s="79">
         <f>SUM(G28:G34)</f>
         <v>35</v>
       </c>
-      <c r="I35" s="79"/>
-    </row>
-    <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="80"/>
+    </row>
+    <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>9</v>
@@ -5517,44 +5533,40 @@
         <v>19</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E36" s="22">
         <v>43773</v>
       </c>
       <c r="F36" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="G36" s="12">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G36" s="12"/>
       <c r="H36" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D37" s="66"/>
       <c r="E37" s="22">
         <v>43774</v>
       </c>
       <c r="F37" s="12">
-        <v>5</v>
-      </c>
-      <c r="G37" s="12">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G37" s="12"/>
       <c r="H37" s="18" t="s">
         <v>20</v>
       </c>
@@ -5562,32 +5574,32 @@
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="67"/>
+        <v>19</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="E38" s="22">
         <v>43775</v>
       </c>
       <c r="F38" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="G38" s="1">
         <v>5</v>
       </c>
+      <c r="G38" s="12"/>
       <c r="H38" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>12</v>
@@ -5595,49 +5607,49 @@
       <c r="C39" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="67"/>
+      <c r="D39" s="67" t="s">
+        <v>113</v>
+      </c>
       <c r="E39" s="22">
         <v>43776</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="1">
-        <v>7</v>
-      </c>
+      <c r="G39" s="12"/>
       <c r="H39" s="18" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="67"/>
+        <v>19</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>114</v>
+      </c>
       <c r="E40" s="22">
         <v>43777</v>
       </c>
       <c r="F40" s="1">
         <v>4.5</v>
       </c>
-      <c r="G40" s="1">
-        <v>5</v>
-      </c>
+      <c r="G40" s="12"/>
       <c r="H40" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>14</v>
@@ -5645,18 +5657,18 @@
       <c r="C41" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="69" t="s">
+        <v>115</v>
+      </c>
       <c r="E41" s="22">
         <v>43778</v>
       </c>
       <c r="F41" s="1">
-        <v>7</v>
-      </c>
-      <c r="G41" s="1">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G41" s="12"/>
       <c r="H41" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="3"/>
     </row>
@@ -5678,35 +5690,35 @@
       <c r="B43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="78">
+      <c r="C43" s="79">
         <f>SUM(F36:F42)</f>
-        <v>31.5</v>
-      </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
+        <v>30.5</v>
+      </c>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="80"/>
       <c r="G43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="78">
+      <c r="H43" s="79">
         <f>SUM(G36:G42)</f>
-        <v>33</v>
-      </c>
-      <c r="I43" s="79"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">

--- a/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
+++ b/Private/Phương/4. Timelog/PM_TimeLog_Phương.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Private\Phương\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AACDF-0D86-4EB2-A77E-A3E8F0A075F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCA74CD-762D-4A8E-97DC-1266D0DD5F61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Đạt Huỳnh" sheetId="8" r:id="rId2"/>
     <sheet name="Như Phương" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="130">
   <si>
     <t>Work in period</t>
   </si>
@@ -402,6 +402,52 @@
     <t xml:space="preserve">Complete the meeting minutes ;
 Review document 
 Analyst Requirement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Complete the meeting minutes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete RE document </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review document  
+Complete the meeting minutes 
+</t>
+  </si>
+  <si>
+    <t>Update ConOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Complete the meeting minutes 
+Review document 
+</t>
+  </si>
+  <si>
+    <t>Architure Driver</t>
+  </si>
+  <si>
+    <t>Architure Design</t>
+  </si>
+  <si>
+    <t>Context Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detail Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEst Case </t>
   </si>
 </sst>
 </file>
@@ -946,7 +992,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1125,6 +1171,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4221,17 +4273,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4431,21 +4483,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
@@ -4619,21 +4671,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="75">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="75">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4666,10 +4718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E6E6FC-AA3E-4AB8-932A-DA22E440EB21}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection sqref="A1:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4697,17 +4749,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -4916,21 +4968,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="81">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="81">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="80"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -5112,21 +5164,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="81">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="81">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="80"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
@@ -5308,21 +5360,21 @@
       <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="81">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="79">
+      <c r="H27" s="81">
         <f>SUM(G20:G26)</f>
         <v>35</v>
       </c>
-      <c r="I27" s="80"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
@@ -5506,21 +5558,21 @@
       <c r="B35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="81">
         <f>SUM(F28:F34)</f>
         <v>31.5</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82"/>
       <c r="G35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="79">
+      <c r="H35" s="81">
         <f>SUM(G28:G34)</f>
         <v>35</v>
       </c>
-      <c r="I35" s="80"/>
+      <c r="I35" s="82"/>
     </row>
     <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
@@ -5690,24 +5742,750 @@
       <c r="B43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="79">
+      <c r="C43" s="81">
         <f>SUM(F36:F42)</f>
         <v>30.5</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="82"/>
       <c r="G43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="79">
+      <c r="H43" s="81">
         <f>SUM(G36:G42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="80"/>
+      <c r="I43" s="82"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>6</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="71"/>
+      <c r="E44" s="22">
+        <v>43780</v>
+      </c>
+      <c r="F44" s="12">
+        <v>6</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>6</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="22">
+        <v>43781</v>
+      </c>
+      <c r="F45" s="12">
+        <v>4</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>6</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="67"/>
+      <c r="E46" s="22">
+        <v>43782</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>6</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="22">
+        <v>43783</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>6</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="22">
+        <v>43784</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>6</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="22">
+        <v>43785</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="81">
+        <f>SUM(F44:F50)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="81">
+        <f>SUM(G44:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="82"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>7</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="22">
+        <v>43787</v>
+      </c>
+      <c r="F52" s="12">
+        <v>6</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>7</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="66"/>
+      <c r="E53" s="22">
+        <v>43788</v>
+      </c>
+      <c r="F53" s="12">
+        <v>4</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>7</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="22">
+        <v>43789</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>7</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="22">
+        <v>43790</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>7</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="22">
+        <v>43791</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>7</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="22">
+        <v>43792</v>
+      </c>
+      <c r="F57" s="1">
+        <v>6</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="81">
+        <f>SUM(F52:F58)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="81">
+        <f>SUM(G52:G58)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="82"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>8</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="22">
+        <v>43794</v>
+      </c>
+      <c r="F60" s="12">
+        <v>6</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>8</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="66"/>
+      <c r="E61" s="22">
+        <v>43795</v>
+      </c>
+      <c r="F61" s="12">
+        <v>4</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="19"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>8</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="22">
+        <v>43796</v>
+      </c>
+      <c r="F62" s="1">
+        <v>6</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>8</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="22">
+        <v>43797</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>8</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="22">
+        <v>43798</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>8</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="22">
+        <v>43799</v>
+      </c>
+      <c r="F65" s="1">
+        <v>6</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="74">
+        <v>8</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>8</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="81">
+        <f>SUM(F60:F66)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="81">
+        <f>SUM(G60:G66)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="82"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <v>9</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="22">
+        <v>43801</v>
+      </c>
+      <c r="F68" s="12">
+        <v>6</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="19"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <v>9</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="66"/>
+      <c r="E69" s="22">
+        <v>43802</v>
+      </c>
+      <c r="F69" s="12">
+        <v>4</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="19"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
+        <v>9</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="22">
+        <v>43803</v>
+      </c>
+      <c r="F70" s="1">
+        <v>6</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>9</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="22">
+        <v>43804</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>9</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="22">
+        <v>43805</v>
+      </c>
+      <c r="F72" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>9</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="22">
+        <v>43806</v>
+      </c>
+      <c r="F73" s="1">
+        <v>6</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="74">
+        <v>9</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>9</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="81">
+        <f>SUM(F68:F74)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="81">
+        <f>SUM(G68:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
@@ -5719,6 +6497,14 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="H67:I67"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">
@@ -5726,13 +6512,13 @@
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26 H28:H34 H36:H42" xr:uid="{72DA7AFC-686F-4552-A46C-54827227E2DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26 H28:H34 H36:H42 H44:H50 H68:H74 H60:H66 H52:H58" xr:uid="{72DA7AFC-686F-4552-A46C-54827227E2DF}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25 C28:C33 C36:C41" xr:uid="{CA2FE6F4-962B-45C9-BD0E-B095FA55B23A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25 C28:C33 C36:C41 C44:C49 C52:C57 C61:C65 C69:C73" xr:uid="{CA2FE6F4-962B-45C9-BD0E-B095FA55B23A}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42" xr:uid="{ED2FDDC9-5592-49AD-9E51-6F9CA9FF49FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42 C50 C58 C66 C74" xr:uid="{ED2FDDC9-5592-49AD-9E51-6F9CA9FF49FF}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
   </dataValidations>
